--- a/data/processed/basaltic_glasses/kraw_summaries_D2893.xlsx
+++ b/data/processed/basaltic_glasses/kraw_summaries_D2893.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F2">
         <v>0.35</v>
@@ -543,22 +543,22 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J2">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="K2">
-        <v>12.91</v>
+        <v>15.61</v>
       </c>
       <c r="L2">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="M2">
-        <v>27.34</v>
+        <v>16.02</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F3">
         <v>0.33</v>
@@ -590,19 +590,19 @@
         <v>0.4</v>
       </c>
       <c r="I3">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J3">
         <v>0.33</v>
       </c>
       <c r="K3">
-        <v>16.64</v>
+        <v>15.67</v>
       </c>
       <c r="L3">
         <v>0.4</v>
       </c>
       <c r="M3">
-        <v>29.28</v>
+        <v>16.08</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F4">
         <v>0.38</v>
@@ -634,19 +634,19 @@
         <v>0.45</v>
       </c>
       <c r="I4">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J4">
         <v>0.37</v>
       </c>
       <c r="K4">
-        <v>12.39</v>
+        <v>15.44</v>
       </c>
       <c r="L4">
         <v>0.45</v>
       </c>
       <c r="M4">
-        <v>27.09</v>
+        <v>15.86</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F5">
         <v>0.29</v>
@@ -675,22 +675,22 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I5">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J5">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="K5">
-        <v>20.24</v>
+        <v>20.09</v>
       </c>
       <c r="L5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="M5">
-        <v>31.47</v>
+        <v>20.42</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F6">
         <v>0.32</v>
@@ -722,19 +722,19 @@
         <v>0.37</v>
       </c>
       <c r="I6">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J6">
         <v>0.31</v>
       </c>
       <c r="K6">
-        <v>18.38</v>
+        <v>15.99</v>
       </c>
       <c r="L6">
         <v>0.37</v>
       </c>
       <c r="M6">
-        <v>30.31</v>
+        <v>16.4</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F7">
         <v>0.18</v>
@@ -763,22 +763,22 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I7">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J7">
         <v>0.18</v>
       </c>
       <c r="K7">
-        <v>57.69</v>
+        <v>59.51</v>
       </c>
       <c r="L7">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="M7">
-        <v>62.52</v>
+        <v>59.62</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F8">
         <v>0.35</v>
@@ -807,22 +807,22 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I8">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J8">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="K8">
-        <v>18.97</v>
+        <v>18.13</v>
       </c>
       <c r="L8">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="M8">
-        <v>30.66</v>
+        <v>18.49</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F9">
         <v>0.39</v>
@@ -851,22 +851,22 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="I9">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J9">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="K9">
-        <v>14.64</v>
+        <v>16.03</v>
       </c>
       <c r="L9">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="M9">
-        <v>28.2</v>
+        <v>16.43</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F10">
         <v>0.27</v>
@@ -895,22 +895,22 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I10">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J10">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K10">
-        <v>22.14</v>
+        <v>20.08</v>
       </c>
       <c r="L10">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M10">
-        <v>32.72</v>
+        <v>20.4</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F11">
         <v>0.25</v>
@@ -939,22 +939,22 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I11">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="K11">
-        <v>22.52</v>
+        <v>25.62</v>
       </c>
       <c r="L11">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="M11">
-        <v>32.98</v>
+        <v>25.87</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F12">
         <v>0.37</v>
@@ -983,22 +983,22 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="I12">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J12">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="K12">
-        <v>18.05</v>
+        <v>18.79</v>
       </c>
       <c r="L12">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="M12">
-        <v>30.1</v>
+        <v>19.14</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F13">
         <v>0.24</v>
@@ -1030,19 +1030,19 @@
         <v>0.29</v>
       </c>
       <c r="I13">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J13">
         <v>0.24</v>
       </c>
       <c r="K13">
-        <v>21.54</v>
+        <v>25.07</v>
       </c>
       <c r="L13">
         <v>0.29</v>
       </c>
       <c r="M13">
-        <v>32.32</v>
+        <v>25.33</v>
       </c>
       <c r="N13" t="s">
         <v>24</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F14">
         <v>0.34</v>
@@ -1071,22 +1071,22 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I14">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J14">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="K14">
-        <v>16.09</v>
+        <v>15.66</v>
       </c>
       <c r="L14">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="M14">
-        <v>28.97</v>
+        <v>16.07</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F15">
         <v>0.34</v>
@@ -1115,22 +1115,22 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I15">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J15">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K15">
-        <v>15.16</v>
+        <v>16.82</v>
       </c>
       <c r="L15">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="M15">
-        <v>28.47</v>
+        <v>17.21</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F16">
         <v>0.32</v>
@@ -1162,19 +1162,19 @@
         <v>0.39</v>
       </c>
       <c r="I16">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J16">
         <v>0.32</v>
       </c>
       <c r="K16">
-        <v>16.1</v>
+        <v>18.51</v>
       </c>
       <c r="L16">
         <v>0.39</v>
       </c>
       <c r="M16">
-        <v>28.98</v>
+        <v>18.86</v>
       </c>
       <c r="N16" t="s">
         <v>27</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F17">
         <v>0.3</v>
@@ -1203,22 +1203,22 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I17">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J17">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="K17">
-        <v>19.71</v>
+        <v>21.5</v>
       </c>
       <c r="L17">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="M17">
-        <v>31.13</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="s">
         <v>28</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F18">
         <v>0.26</v>
@@ -1250,19 +1250,19 @@
         <v>0.3</v>
       </c>
       <c r="I18">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J18">
         <v>0.25</v>
       </c>
       <c r="K18">
-        <v>49.8</v>
+        <v>49.17</v>
       </c>
       <c r="L18">
         <v>0.3</v>
       </c>
       <c r="M18">
-        <v>55.32</v>
+        <v>49.3</v>
       </c>
       <c r="N18" t="s">
         <v>29</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F19">
         <v>0.14</v>
@@ -1291,22 +1291,22 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I19">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J19">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K19">
-        <v>108.11</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="L19">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="M19">
-        <v>110.76</v>
+        <v>96.5</v>
       </c>
       <c r="N19" t="s">
         <v>30</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F20">
         <v>0.23</v>
@@ -1335,22 +1335,22 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I20">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J20">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="K20">
-        <v>52.75</v>
+        <v>54.64</v>
       </c>
       <c r="L20">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="M20">
-        <v>58</v>
+        <v>54.76</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F21">
         <v>0.14</v>
@@ -1382,19 +1382,19 @@
         <v>0.16</v>
       </c>
       <c r="I21">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J21">
         <v>0.13</v>
       </c>
       <c r="K21">
-        <v>91.54000000000001</v>
+        <v>86.81</v>
       </c>
       <c r="L21">
         <v>0.16</v>
       </c>
       <c r="M21">
-        <v>94.66</v>
+        <v>86.88</v>
       </c>
       <c r="N21" t="s">
         <v>32</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F22">
         <v>0.33</v>
@@ -1423,22 +1423,22 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="I22">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J22">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="K22">
-        <v>35.26</v>
+        <v>37.72</v>
       </c>
       <c r="L22">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="M22">
-        <v>42.71</v>
+        <v>37.89</v>
       </c>
       <c r="N22" t="s">
         <v>33</v>
